--- a/EngFirstQuater2017.xlsx
+++ b/EngFirstQuater2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="22056" windowHeight="9888" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22056" windowHeight="9888"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="326">
   <si>
     <t>pay in lump sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3408,10 +3408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Whant can you do to </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This can be</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4110,6 +4106,3264 @@
         <charset val="129"/>
       </rPr>
       <t>없어</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침입하다(h..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침입하다(b..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침입하다(i..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Whan can you do to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그것은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해커가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침입하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해킹으로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자신을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보호하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유출에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무감각해져왔다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그것은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가시킨다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It increases chance of/that ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It increases chance of us winning/getting the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It increases chance that we get the contract.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the rise of ~ , S + V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, S+V..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the rise of demand for the product, we decided to increase its production.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The test results are listed as follow/as above.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The test results are listed below/aobve.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as follow / as above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>below / above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The first item is A, followed by B. Then there will be C. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처음이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compliment on ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칭찬하다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보충</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보충하다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">compliment / complement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발음이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유사해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문맥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘해야함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complimentary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무료의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칭찬하는</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>craze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a craze for chicket in Korea.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않이</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>craze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쎈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느낌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>품위있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매력적인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to look personable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인적인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>급사하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>졸도하다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop dead pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neighborhood pretty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동네</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정도의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이쁜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝내주게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이쁜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치고는</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They look young for their ages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They look younger than their ages.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나이보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어려보인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasive way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외과적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시술방법</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all in all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적으로,대체로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통, 대개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be obsessed with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집착하다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집착</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강박</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's chilly for March.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You were over-compensated for your achievement. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is under-employed for his skills.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has higher position for his skills.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People seem to care too much about their appearance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외모에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지나치게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쓰는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It seems that people care too much about their appearance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seem to have pp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>They seem to have been lost the match. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>..?_)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그들은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It appears that ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>seem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> formal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상해주다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over-compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under-compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상받다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>덜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상받다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>under-employed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고용이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>된</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기계발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work their employees to death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고용인에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시키다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm tired to death.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm starve to death.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm bored to death.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피곤해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽겠다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배고파</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽겠다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지루해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽겠다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>occupational disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiff neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulder-ache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist-ache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어깨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acupuncture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I got acupuncture.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work one's ass off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈빠지게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일하다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm working my ass off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>죽도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뼈빠지게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve labor productivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manageable workload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean job description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viable/feasible schedule/timeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empowerment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>권한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부여</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look past?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핵심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재무재표에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유래됨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순수익</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the important thing, key point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disrupted sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장애</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardiovascular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심혈관의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hormonal imbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호르몬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불균형</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterproductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생산적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역효과를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낳는</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4166,12 +7420,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4180,7 +7449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4191,6 +7460,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4487,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A54:E136"/>
+  <dimension ref="A54:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:E76"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4547,7 +7825,7 @@
         <v>130</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5150,7 +8428,7 @@
         <v>98</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="127" spans="2:5">
@@ -5169,7 +8447,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="1:4">
       <c r="B129" s="2" t="s">
         <v>103</v>
       </c>
@@ -5180,7 +8458,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="1:4">
       <c r="B130" s="2" t="s">
         <v>106</v>
       </c>
@@ -5191,12 +8469,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4">
       <c r="D131" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="1:4">
       <c r="B132" s="2" t="s">
         <v>110</v>
       </c>
@@ -5204,7 +8482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="1:4">
       <c r="B133" s="2" t="s">
         <v>112</v>
       </c>
@@ -5212,7 +8490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="1:4">
       <c r="B134" s="2" t="s">
         <v>113</v>
       </c>
@@ -5220,7 +8498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="1:4">
       <c r="B135" s="2" t="s">
         <v>115</v>
       </c>
@@ -5228,7 +8506,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="1:4">
       <c r="B136" s="2" t="s">
         <v>117</v>
       </c>
@@ -5237,6 +8515,510 @@
       </c>
       <c r="D136" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>42818</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="D139" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="B161" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>42821</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="D164" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="D165" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="D166" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="D168" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="B176" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5250,744 +9032,747 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A27:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D107"/>
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="35.09765625" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="6"/>
   </cols>
   <sheetData>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>42809</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="D31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="2"/>
+      <c r="D34" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>42811</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>193</v>
+      <c r="D51" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>191</v>
+      <c r="D59" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>192</v>
+      <c r="D60" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="2"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>42814</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="2"/>
+      <c r="C86" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D87" s="2"/>
+      <c r="C87" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" s="2"/>
+      <c r="C88" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="2"/>
+      <c r="C89" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>195</v>
+      <c r="D97" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2"/>
-      <c r="B101" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="B101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B107" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
